--- a/operador_microcomputador/office_e_internet/excel/aula04/lista.xlsx
+++ b/operador_microcomputador/office_e_internet/excel/aula04/lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\operador_microcomputador\office_e_internet\excel\aula04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B81DA-84E3-4A6F-87EA-196723459684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4B9A3-EDDD-44F1-8F6B-BCB478152DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7A075944-4C3F-43B7-A929-FB1DC36FDFFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7A075944-4C3F-43B7-A929-FB1DC36FDFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="atividade1" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>Despesa Líquida</t>
   </si>
   <si>
-    <t>Salários</t>
-  </si>
-  <si>
     <t>Juros</t>
   </si>
   <si>
@@ -304,10 +301,13 @@
     <t>Valor acumulado das despesas</t>
   </si>
   <si>
-    <t>ALUGUÉL</t>
-  </si>
-  <si>
     <t>BICO</t>
+  </si>
+  <si>
+    <t>ALUGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -848,11 +848,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -866,19 +866,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -889,40 +882,13 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -936,6 +902,56 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,11 +961,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,24 +970,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -1310,11 +1309,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1379,13 +1378,13 @@
         <f>MIN(C3:E3)</f>
         <v>4500</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="57">
         <f>AVERAGE(C3:E3)</f>
         <v>5078.666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1401,7 +1400,7 @@
         <v>7910</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F9" si="0">SUM(C4:E4)</f>
+        <f t="shared" ref="F4:F8" si="0">SUM(C4:E4)</f>
         <v>21160</v>
       </c>
       <c r="G4" s="7">
@@ -1412,13 +1411,13 @@
         <f t="shared" ref="H4:H8" si="2">MIN(C4:E4)</f>
         <v>6250</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="57">
         <f t="shared" ref="I4:I8" si="3">AVERAGE(C4:E4)</f>
         <v>7053.333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1445,13 +1444,13 @@
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="57">
         <f t="shared" si="3"/>
         <v>3724</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1478,13 +1477,13 @@
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="57">
         <f t="shared" si="3"/>
         <v>8938.3333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1511,13 +1510,13 @@
         <f t="shared" si="2"/>
         <v>4557</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="57">
         <f t="shared" si="3"/>
         <v>5112.333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1532,19 +1531,19 @@
       <c r="E8" s="12">
         <v>4113</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="58">
         <f t="shared" si="0"/>
         <v>11013</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="58">
         <f t="shared" si="1"/>
         <v>4113</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="58">
         <f t="shared" si="2"/>
         <v>3260</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="59">
         <f t="shared" si="3"/>
         <v>3671</v>
       </c>
@@ -1554,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f>SUM(C3:C8)</f>
         <v>29867</v>
       </c>
-      <c r="D9" s="23">
-        <f t="shared" ref="D9:F9" si="4">SUM(D3:D8)</f>
+      <c r="D9" s="22">
+        <f t="shared" ref="D9:E9" si="4">SUM(D3:D8)</f>
         <v>33170</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f t="shared" si="4"/>
         <v>37696</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <f>SUM(F3:F8)</f>
         <v>100733</v>
       </c>
@@ -1619,25 +1618,25 @@
       <c r="E11" s="7">
         <v>7858</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <f>SUM(C11:E11)</f>
         <v>21077</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <f>MAX(C11:E11)</f>
         <v>7858</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <f>MIN(C11:E11)</f>
         <v>6265</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <f>AVERAGE(C11:E11)</f>
         <v>7025.666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1652,25 +1651,25 @@
       <c r="E12" s="5">
         <v>10197</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <f t="shared" ref="F12:F16" si="5">SUM(C12:E12)</f>
         <v>28556</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <f t="shared" ref="G12:G16" si="6">MAX(C12:E12)</f>
         <v>10197</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <f t="shared" ref="H12:H16" si="7">MIN(C12:E12)</f>
         <v>8701</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <f t="shared" ref="I12:I16" si="8">AVERAGE(C12:E12)</f>
         <v>9518.6666666666661</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1685,25 +1684,25 @@
       <c r="E13" s="5">
         <v>5769</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <f t="shared" si="5"/>
         <v>15437</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <f t="shared" si="6"/>
         <v>5769</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <f t="shared" si="7"/>
         <v>4569</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <f t="shared" si="8"/>
         <v>5145.666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1718,25 +1717,25 @@
       <c r="E14" s="5">
         <v>13969</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <f t="shared" si="5"/>
         <v>38675</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <f t="shared" si="6"/>
         <v>13969</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <f t="shared" si="7"/>
         <v>12341</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="21">
         <f t="shared" si="8"/>
         <v>12891.666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1751,25 +1750,25 @@
       <c r="E15" s="5">
         <v>7957</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f t="shared" si="5"/>
         <v>21343</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <f t="shared" si="6"/>
         <v>7957</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f t="shared" si="7"/>
         <v>6344</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="21">
         <f t="shared" si="8"/>
         <v>7114.333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1784,19 +1783,19 @@
       <c r="E16" s="12">
         <v>5671</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <f t="shared" si="5"/>
         <v>15218</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <f t="shared" si="6"/>
         <v>5671</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <f t="shared" si="7"/>
         <v>4525</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <f t="shared" si="8"/>
         <v>5072.666666666667</v>
       </c>
@@ -1806,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <f>SUM(C11:C16)</f>
         <v>42745</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <f t="shared" ref="D17:F17" si="9">SUM(D11:D16)</f>
         <v>46140</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f t="shared" si="9"/>
         <v>51421</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <f t="shared" si="9"/>
         <v>140306</v>
       </c>
@@ -1827,29 +1826,29 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26">
+      <c r="B18" s="64"/>
+      <c r="C18" s="23">
         <f>C17+C9</f>
         <v>72612</v>
       </c>
-      <c r="D18" s="26">
-        <f t="shared" ref="D18:I18" si="10">D17+D9</f>
+      <c r="D18" s="23">
+        <f t="shared" ref="D18:F18" si="10">D17+D9</f>
         <v>79310</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="23">
         <f t="shared" si="10"/>
         <v>89117</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="23">
         <f t="shared" si="10"/>
         <v>241039</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1867,7 +1866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA99C92F-E10C-4AAC-BF0C-2E5672508BC3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1879,24 +1880,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33">
-        <v>5.94</v>
+      <c r="B1" s="30">
+        <v>5.27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -1922,130 +1923,130 @@
       <c r="B4" s="6">
         <v>500</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="35">
         <v>1.34</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="36">
         <f>B4*C4</f>
         <v>670</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <f>D4/$B$1</f>
-        <v>112.79461279461279</v>
+        <v>127.13472485768501</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>750</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>1.34</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="28">
         <f t="shared" ref="D5:D10" si="0">B5*C5</f>
         <v>1005.0000000000001</v>
       </c>
-      <c r="E5" s="43">
-        <f t="shared" ref="E5:E10" si="1">D5/$B$1</f>
-        <v>169.1919191919192</v>
+      <c r="E5" s="37">
+        <f t="shared" ref="E5:E9" si="1">D5/$B$1</f>
+        <v>190.70208728652756</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>250</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>11.64</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <f t="shared" si="0"/>
         <v>2910</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <f t="shared" si="1"/>
-        <v>489.89898989898984</v>
+        <v>552.18216318785585</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="4">
         <v>310</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>1.46</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="28">
         <f t="shared" si="0"/>
         <v>452.59999999999997</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="37">
         <f t="shared" si="1"/>
-        <v>76.195286195286187</v>
+        <v>85.882352941176478</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="4">
         <v>500</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <v>0.5</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42.087542087542083</v>
+        <v>47.438330170777995</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4">
         <v>1500</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>5.99</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="28">
         <f t="shared" si="0"/>
         <v>8985</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="37">
         <f t="shared" si="1"/>
-        <v>1512.6262626262626</v>
+        <v>1704.933586337761</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="32">
         <v>190</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="33">
         <v>6</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="34">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="E10" s="81">
-        <f t="shared" si="1"/>
-        <v>191.91919191919192</v>
+      <c r="E10" s="60">
+        <f t="shared" ref="E5:E10" si="2">D10/$B$1</f>
+        <v>216.31878557874765</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2082,7 +2083,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2099,285 +2100,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="53">
+      <c r="A4" s="41">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>853</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="43">
         <v>0.1</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="43">
         <v>0.09</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <f>C4*D4</f>
         <v>85.300000000000011</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <f>C4*E4</f>
         <v>76.77</v>
       </c>
-      <c r="H4" s="57">
-        <f>C4+G4-F4</f>
-        <v>844.47</v>
+      <c r="H4" s="45">
+        <f>C4+F4-G4</f>
+        <v>861.53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="53">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="26">
         <v>951</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="43">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="43">
         <v>0.08</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f t="shared" ref="F5:F11" si="0">C5*D5</f>
         <v>95.004900000000006</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="28">
         <f t="shared" ref="G5:G11" si="1">C5*E5</f>
         <v>76.08</v>
       </c>
-      <c r="H5" s="57">
-        <f t="shared" ref="H5:H11" si="2">C5+G5-F5</f>
-        <v>932.07509999999991</v>
+      <c r="H5" s="45">
+        <f t="shared" ref="H5:H11" si="2">C5+F5-G5</f>
+        <v>969.92489999999987</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>456</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="43">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="43">
         <v>0.06</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>39.398400000000002</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <f t="shared" si="1"/>
         <v>27.36</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="45">
         <f t="shared" si="2"/>
-        <v>443.96160000000003</v>
+        <v>468.03839999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
+      <c r="A7" s="41">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>500</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="43">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="43">
         <v>0.06</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="45">
         <f t="shared" si="2"/>
-        <v>487.5</v>
+        <v>512.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
+      <c r="A8" s="41">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <v>850</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="43">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="43">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>76.414999999999992</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="28">
         <f t="shared" si="1"/>
         <v>59.500000000000007</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="45">
         <f t="shared" si="2"/>
-        <v>833.08500000000004</v>
+        <v>866.91499999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="41">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>459</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="43">
         <v>6.25E-2</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="43">
         <v>0.05</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>28.6875</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="28">
         <f t="shared" si="1"/>
         <v>22.950000000000003</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="45">
         <f t="shared" si="2"/>
-        <v>453.26249999999999</v>
+        <v>464.73750000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="41">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>478</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="43">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="43">
         <v>0.05</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>34.0336</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="28">
         <f t="shared" si="1"/>
         <v>23.900000000000002</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="45">
         <f t="shared" si="2"/>
-        <v>467.8664</v>
+        <v>488.1336</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="42">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="33">
         <v>658</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="44">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="44">
         <v>0.04</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="34">
         <f t="shared" si="0"/>
         <v>39.414200000000001</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="34">
         <f t="shared" si="1"/>
         <v>26.32</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="46">
         <f t="shared" si="2"/>
-        <v>644.9058</v>
+        <v>671.0942</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2395,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2405,15 +2406,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -2440,50 +2441,50 @@
       <c r="A3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1500</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>1750</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>1800</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>1700</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>1654</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="57">
         <v>1700</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="6">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
         <v>400</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>400</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>400</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>400</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>400</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="4"/>
@@ -2491,206 +2492,206 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>30</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>25</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>25</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>22</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="26">
         <v>22</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="47">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>150</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>160</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="26">
         <v>154</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>155</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <v>154</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="47">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>300</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <v>250</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="26">
         <v>300</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>300</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="26">
         <v>200</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="47">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="26">
         <v>40</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>40</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="26">
         <v>40</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>40</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="26">
         <v>40</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>150</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>150</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="26">
         <v>150</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="26">
         <v>120</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <v>150</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="26">
         <v>130</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <v>200</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="26">
         <v>150</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="47">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>150</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>160</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="26">
         <v>165</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>170</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="26">
         <v>165</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="47">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>100</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>100</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>100</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>100</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="27">
         <v>90</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="48">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="54">
         <v>650</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="54">
         <v>650</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="54">
         <v>650</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="54">
         <v>650</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="54">
         <v>650</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="54">
         <v>650</v>
       </c>
     </row>
@@ -2698,56 +2699,56 @@
       <c r="A15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="49">
         <f>SUM(B6:B14)</f>
         <v>1690</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="49">
         <f t="shared" ref="C15:G15" si="0">SUM(C6:C14)</f>
         <v>1685</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="49">
         <f t="shared" si="0"/>
         <v>1714</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
         <v>1637</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>1471</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="49">
         <f t="shared" si="0"/>
         <v>1542</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="51">
         <f>B3+B4-B15</f>
         <v>210</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="51">
         <f t="shared" ref="C16:G16" si="1">C3+C4-C15</f>
         <v>465</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="51">
         <f t="shared" si="1"/>
         <v>486</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="51">
         <f t="shared" si="1"/>
         <v>463</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="51">
         <f t="shared" si="1"/>
         <v>583</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="51">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
@@ -2765,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED576D8-30C6-4A79-BEB5-89F68EBE30A8}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2777,14 +2778,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -2820,7 +2821,7 @@
       <c r="E3" s="5">
         <v>240000</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="52">
         <f>SUM(B3:E3)</f>
         <v>769100</v>
       </c>
@@ -2847,7 +2848,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5">
         <v>20000</v>
@@ -2861,14 +2862,14 @@
       <c r="E6" s="5">
         <v>43940</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="52">
         <f>SUM(B6:E6)</f>
         <v>123740</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5">
         <v>20000</v>
@@ -2882,14 +2883,14 @@
       <c r="E7" s="5">
         <v>26364</v>
       </c>
-      <c r="F7" s="70">
-        <f t="shared" ref="F7:F12" si="0">SUM(B7:E7)</f>
+      <c r="F7" s="52">
+        <f t="shared" ref="F7:F11" si="0">SUM(B7:E7)</f>
         <v>82244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
         <v>12000</v>
@@ -2903,14 +2904,14 @@
       <c r="E8" s="5">
         <v>35371.699999999997</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="52">
         <f t="shared" si="0"/>
         <v>95510.7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5">
         <v>16100</v>
@@ -2924,14 +2925,14 @@
       <c r="E9" s="5">
         <v>43270.3</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="52">
         <f t="shared" si="0"/>
         <v>121871.3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5">
         <v>19900</v>
@@ -2945,14 +2946,14 @@
       <c r="E10" s="5">
         <v>65910</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="52">
         <f t="shared" si="0"/>
         <v>175510</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5">
         <v>25000</v>
@@ -2966,14 +2967,14 @@
       <c r="E11" s="5">
         <v>54925</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="52">
         <f t="shared" si="0"/>
         <v>154675</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5">
         <f>SUM(B6:B11)</f>
@@ -2991,66 +2992,70 @@
         <f t="shared" si="1"/>
         <v>269781</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="70">
+        <v>87</v>
+      </c>
+      <c r="B13" s="52">
         <f>B3-B12</f>
         <v>27000</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="52">
         <f t="shared" ref="C13:E13" si="2">C3-C12</f>
         <v>22100</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="52">
         <f t="shared" si="2"/>
         <v>-3770</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="52">
         <f t="shared" si="2"/>
         <v>-29781</v>
       </c>
+      <c r="F13" s="55">
+        <f>SUM(B13:E13)</f>
+        <v>15549</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>IF(B13&lt;1000,"Prejuíso",IF(B13&lt;25000,"Lucro","Lucro Total"))</f>
+        <v>Lucro Total</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f t="shared" ref="C14:E14" si="3">IF(C13&lt;1000,"Prejuíso",IF(C13&lt;25000,"Lucro","Lucro Total"))</f>
+        <v>Lucro</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Prejuíso</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Prejuíso</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="4" t="str">
-        <f>IF(B13&lt;1000,"Prejuíso Total",IF(B13&lt;5000,"Lucro Médio","Lucro Total"))</f>
-        <v>Lucro Total</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f t="shared" ref="C14:E14" si="3">IF(C13&lt;1000,"Prejuíso Total",IF(C13&lt;5000,"Lucro Médio","Lucro Total"))</f>
-        <v>Lucro Total</v>
-      </c>
-      <c r="D14" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Prejuíso Total</v>
-      </c>
-      <c r="E14" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Prejuíso Total</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75">
+      <c r="D15" s="77"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="56">
         <f>SUM(B12:E12)</f>
         <v>753551</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="73"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="73"/>
+      <c r="F18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
